--- a/StudyStep/05 序列模型.xlsx
+++ b/StudyStep/05 序列模型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/Desktop/5_深度汇总/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/zooprog/03_self_tools/03_leetcoding/StudyStep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C56A2ED-E30B-0841-B00B-8FE372C38996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B44262-D574-2A47-9118-0C8EE5A004B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="-17680" windowWidth="27540" windowHeight="17040" activeTab="3" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
+    <workbookView xWindow="3340" yWindow="-17680" windowWidth="27540" windowHeight="17040" activeTab="1" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周 深度学习概论" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>35. 2.11 向量化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy的灵活使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -761,7 +757,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -778,129 +774,99 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3">
-        <v>44004</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44004</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44004</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44004</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44004</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44004</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44004</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44004</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44004</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44004</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44004</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44004</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44004</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44004</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44004</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="3"/>
@@ -937,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C093D584-8279-4040-BBE1-1D22076C9584}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -956,236 +922,187 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44005</v>
-      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3">
-        <v>44005</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3">
-        <v>44005</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3">
-        <v>44005</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1216,107 +1133,107 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E44DCD-7E56-9F42-B2D5-27F8891275BD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1347,87 +1264,87 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
